--- a/data/all_errors.xlsx
+++ b/data/all_errors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjeon\OneDrive\Desktop\QA\Bay\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E0FA3F-016C-43BA-82D4-C5D47477426B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B77D6C3-D3D4-4B3E-A201-CC5F9952C3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-4740" windowWidth="38620" windowHeight="21820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="48">
   <si>
     <t>구분명</t>
   </si>
@@ -127,12 +127,6 @@
   </si>
   <si>
     <t>제품 확인 15</t>
-  </si>
-  <si>
-    <t>제품 확인 16</t>
-  </si>
-  <si>
-    <t>제품 확인 17</t>
   </si>
   <si>
     <t>Medication</t>
@@ -528,6 +522,18 @@
     <t>010-6275-4153</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>NEW Product</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Product</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>new product</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -677,11 +683,11 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -954,518 +960,518 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2453,7 +2459,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2509,7 +2515,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2517,7 +2523,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
@@ -2530,10 +2536,10 @@
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I2" s="3">
         <v>123456789</v>
@@ -2545,13 +2551,13 @@
         <v>0</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="O2" s="5"/>
     </row>
@@ -2560,7 +2566,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -2576,7 +2582,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I3" s="3">
         <v>123456789</v>
@@ -2588,13 +2594,13 @@
         <v>0</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="O3" s="5"/>
     </row>
@@ -2603,7 +2609,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
@@ -2619,7 +2625,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I4" s="3">
         <v>123456789</v>
@@ -2631,13 +2637,13 @@
         <v>0</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="O4" s="5"/>
     </row>
@@ -2646,7 +2652,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
@@ -2662,7 +2668,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I5" s="3">
         <v>123456789</v>
@@ -2674,13 +2680,13 @@
         <v>0</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5" t="s">
@@ -2692,7 +2698,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>16</v>
@@ -2708,7 +2714,7 @@
         <v>18</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I6" s="3">
         <v>123456789</v>
@@ -2720,13 +2726,13 @@
         <v>0</v>
       </c>
       <c r="L6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5" t="s">
@@ -2738,7 +2744,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
@@ -2754,7 +2760,7 @@
         <v>18</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I7" s="3">
         <v>123456789</v>
@@ -2766,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="O7" s="5"/>
     </row>
@@ -2781,7 +2787,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
@@ -2797,7 +2803,7 @@
         <v>18</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I8" s="3">
         <v>123456789</v>
@@ -2809,13 +2815,13 @@
         <v>0</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5" t="s">
@@ -2857,7 +2863,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>16</v>
@@ -2873,7 +2879,7 @@
         <v>18</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I9" s="3">
         <v>123456789</v>
@@ -2885,13 +2891,13 @@
         <v>0</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O9" s="5"/>
     </row>
@@ -2900,7 +2906,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>16</v>
@@ -2916,7 +2922,7 @@
         <v>18</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I10" s="3">
         <v>123456789</v>
@@ -2928,13 +2934,13 @@
         <v>0</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="O10" s="5"/>
     </row>
@@ -2943,7 +2949,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>16</v>
@@ -2959,7 +2965,7 @@
         <v>18</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I11" s="3">
         <v>123456789</v>
@@ -2971,13 +2977,13 @@
         <v>0</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="O11" s="5"/>
     </row>
@@ -2986,7 +2992,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>16</v>
@@ -3002,7 +3008,7 @@
         <v>18</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I12" s="3">
         <v>123456789</v>
@@ -3014,13 +3020,13 @@
         <v>0</v>
       </c>
       <c r="L12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="O12" s="5"/>
     </row>
@@ -3029,7 +3035,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
@@ -3045,7 +3051,7 @@
         <v>18</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" s="3">
         <v>123456789</v>
@@ -3057,13 +3063,13 @@
         <v>0</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="O13" s="5"/>
     </row>
@@ -3072,7 +3078,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
@@ -3088,7 +3094,7 @@
         <v>18</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I14" s="3">
         <v>123456789</v>
@@ -3100,13 +3106,13 @@
         <v>0</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="O14" s="5"/>
     </row>
@@ -3115,7 +3121,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
@@ -3131,7 +3137,7 @@
         <v>18</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I15" s="3">
         <v>123456789</v>
@@ -3143,13 +3149,13 @@
         <v>0</v>
       </c>
       <c r="L15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="O15" s="5"/>
     </row>
@@ -3158,7 +3164,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>16</v>
@@ -3174,7 +3180,7 @@
         <v>18</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I16" s="3">
         <v>123456789</v>
@@ -3186,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="O16" s="5"/>
     </row>
@@ -3201,7 +3207,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>16</v>
@@ -3210,14 +3216,16 @@
         <v>17</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="11"/>
+        <v>45</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="G17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I17" s="3">
         <v>123456789</v>
@@ -3229,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="O17" s="5"/>
     </row>
@@ -3244,7 +3252,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>16</v>
@@ -3253,14 +3261,16 @@
         <v>17</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="11"/>
+        <v>46</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="G18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I18" s="3">
         <v>123456789</v>
@@ -3272,13 +3282,13 @@
         <v>0</v>
       </c>
       <c r="L18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N18" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="O18" s="5"/>
     </row>
